--- a/src/SampleExcel.xlsx
+++ b/src/SampleExcel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>25</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
 </sst>
 </file>
@@ -124,12 +136,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,7 +448,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,70 +478,70 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
